--- a/resources/experiment 2/metrics/R2/incidence/Angina (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Angina (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8450613361756746</v>
+        <v>0.9504773626993493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8450613361756746</v>
+        <v>0.9454408164439498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8450613361756746</v>
+        <v>0.9270231819066974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9405487420248325</v>
+        <v>0.8754842061590548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9405480705316743</v>
+        <v>0.8791851613980457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9405480705316743</v>
+        <v>0.6432367287055977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7965030500522762</v>
+        <v>0.8966433969623976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7965091914866219</v>
+        <v>0.8974724030981669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7965091914866219</v>
+        <v>0.8916533234895564</v>
       </c>
     </row>
   </sheetData>
